--- a/APM files/134802983/Copy of VR APM Onboarding Form 2024 V2.45 Dream Inn Holiday Homes Dubaixlsx.xlsx
+++ b/APM files/134802983/Copy of VR APM Onboarding Form 2024 V2.45 Dream Inn Holiday Homes Dubaixlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/134802983/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5088DAB3-55A7-5841-B8C5-D34FC83E23FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ACBB0C-FE2B-D44E-A492-16D09214B0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="27060" activeTab="1" xr2:uid="{CC4D25E3-5543-4132-BDE9-DB37E2CE9E54}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17640" activeTab="1" xr2:uid="{CC4D25E3-5543-4132-BDE9-DB37E2CE9E54}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -3172,9 +3172,6 @@
     <t>111503445</t>
   </si>
   <si>
-    <t>111503415</t>
-  </si>
-  <si>
     <t>111503434</t>
   </si>
   <si>
@@ -3182,6 +3179,9 @@
   </si>
   <si>
     <t>111503443</t>
+  </si>
+  <si>
+    <t>111529614</t>
   </si>
 </sst>
 </file>
@@ -5253,6 +5253,15 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5264,15 +5273,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8529,8 +8529,8 @@
   <dimension ref="A1:AQ1048"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12:C13"/>
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -10504,7 +10504,7 @@
     </row>
     <row r="17" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C17" s="127"/>
       <c r="D17" s="31" t="s">
@@ -13350,7 +13350,7 @@
     </row>
     <row r="40" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>595</v>
@@ -13594,7 +13594,7 @@
     </row>
     <row r="42" spans="1:42" s="259" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B42" s="326" t="s">
         <v>684</v>
@@ -13722,7 +13722,7 @@
     </row>
     <row r="43" spans="1:42" s="270" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B43" s="326"/>
       <c r="C43" s="326"/>
@@ -14578,7 +14578,7 @@
     </row>
     <row r="50" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D50" s="31" t="s">
         <v>552</v>
@@ -19772,52 +19772,52 @@
       <c r="G1" s="142" t="s">
         <v>258</v>
       </c>
-      <c r="H1" s="340" t="s">
+      <c r="H1" s="343" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="338" t="s">
+      <c r="I1" s="341" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="338" t="s">
+      <c r="J1" s="341" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="338" t="s">
+      <c r="K1" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="338" t="s">
+      <c r="L1" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="338" t="s">
+      <c r="M1" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="338" t="s">
+      <c r="N1" s="341" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="338" t="s">
+      <c r="O1" s="341" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="338" t="s">
+      <c r="P1" s="341" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="338" t="s">
+      <c r="Q1" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="338" t="s">
+      <c r="R1" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="338" t="s">
+      <c r="S1" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="338" t="s">
+      <c r="T1" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="338" t="s">
+      <c r="U1" s="341" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="338" t="s">
+      <c r="V1" s="341" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="338" t="s">
+      <c r="W1" s="341" t="s">
         <v>21</v>
       </c>
       <c r="X1" s="144" t="s">
@@ -19872,22 +19872,22 @@
       <c r="E2" s="153"/>
       <c r="F2" s="155"/>
       <c r="G2" s="154"/>
-      <c r="H2" s="341"/>
-      <c r="I2" s="339"/>
-      <c r="J2" s="339"/>
-      <c r="K2" s="339"/>
-      <c r="L2" s="339"/>
-      <c r="M2" s="339"/>
-      <c r="N2" s="339"/>
-      <c r="O2" s="339"/>
-      <c r="P2" s="339"/>
-      <c r="Q2" s="339"/>
-      <c r="R2" s="339"/>
-      <c r="S2" s="339"/>
-      <c r="T2" s="339"/>
-      <c r="U2" s="339"/>
-      <c r="V2" s="339"/>
-      <c r="W2" s="339"/>
+      <c r="H2" s="344"/>
+      <c r="I2" s="342"/>
+      <c r="J2" s="342"/>
+      <c r="K2" s="342"/>
+      <c r="L2" s="342"/>
+      <c r="M2" s="342"/>
+      <c r="N2" s="342"/>
+      <c r="O2" s="342"/>
+      <c r="P2" s="342"/>
+      <c r="Q2" s="342"/>
+      <c r="R2" s="342"/>
+      <c r="S2" s="342"/>
+      <c r="T2" s="342"/>
+      <c r="U2" s="342"/>
+      <c r="V2" s="342"/>
+      <c r="W2" s="342"/>
       <c r="X2" s="156"/>
       <c r="Y2" s="157"/>
       <c r="Z2" s="158"/>
@@ -22192,10 +22192,10 @@
       </c>
     </row>
     <row r="31" spans="1:38" s="236" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="342" t="s">
+      <c r="A31" s="338" t="s">
         <v>683</v>
       </c>
-      <c r="B31" s="342" t="s">
+      <c r="B31" s="338" t="s">
         <v>481</v>
       </c>
       <c r="C31" s="235" t="s">
@@ -22276,8 +22276,8 @@
       <c r="AL31" s="296"/>
     </row>
     <row r="32" spans="1:38" s="236" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="343"/>
-      <c r="B32" s="343"/>
+      <c r="A32" s="339"/>
+      <c r="B32" s="339"/>
       <c r="C32" s="235" t="s">
         <v>481</v>
       </c>
@@ -22356,8 +22356,8 @@
       <c r="AL32" s="296"/>
     </row>
     <row r="33" spans="1:38" s="236" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="343"/>
-      <c r="B33" s="343"/>
+      <c r="A33" s="339"/>
+      <c r="B33" s="339"/>
       <c r="C33" s="235" t="s">
         <v>481</v>
       </c>
@@ -22436,8 +22436,8 @@
       <c r="AL33" s="296"/>
     </row>
     <row r="34" spans="1:38" s="236" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="344"/>
-      <c r="B34" s="344"/>
+      <c r="A34" s="340"/>
+      <c r="B34" s="340"/>
       <c r="C34" s="235" t="s">
         <v>481</v>
       </c>
@@ -24021,19 +24021,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="29">
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B22:B25"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
@@ -24050,6 +24037,19 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B22:B25"/>
   </mergeCells>
   <conditionalFormatting sqref="B3">
     <cfRule type="expression" dxfId="58" priority="2">
@@ -25501,10 +25501,10 @@
       <c r="O34" s="231"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="342" t="s">
+      <c r="A35" s="338" t="s">
         <v>687</v>
       </c>
-      <c r="B35" s="342" t="s">
+      <c r="B35" s="338" t="s">
         <v>481</v>
       </c>
       <c r="C35" s="31" t="s">
@@ -25528,8 +25528,8 @@
       <c r="O35" s="231"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="343"/>
-      <c r="B36" s="343"/>
+      <c r="A36" s="339"/>
+      <c r="B36" s="339"/>
       <c r="C36" s="31" t="s">
         <v>481</v>
       </c>
@@ -25551,8 +25551,8 @@
       <c r="O36" s="231"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="343"/>
-      <c r="B37" s="343"/>
+      <c r="A37" s="339"/>
+      <c r="B37" s="339"/>
       <c r="C37" s="31" t="s">
         <v>481</v>
       </c>
@@ -25574,8 +25574,8 @@
       <c r="O37" s="231"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="344"/>
-      <c r="B38" s="344"/>
+      <c r="A38" s="340"/>
+      <c r="B38" s="340"/>
       <c r="C38" s="31" t="s">
         <v>481</v>
       </c>
@@ -25960,6 +25960,12 @@
     </sortState>
   </autoFilter>
   <mergeCells count="16">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="A51:A52"/>
@@ -25970,12 +25976,6 @@
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <conditionalFormatting sqref="B2">
     <cfRule type="expression" dxfId="11" priority="1">

--- a/APM files/134802983/Copy of VR APM Onboarding Form 2024 V2.45 Dream Inn Holiday Homes Dubaixlsx.xlsx
+++ b/APM files/134802983/Copy of VR APM Onboarding Form 2024 V2.45 Dream Inn Holiday Homes Dubaixlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/134802983/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ACBB0C-FE2B-D44E-A492-16D09214B0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACEABF0-D1B2-F144-853A-B87421749AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17640" activeTab="1" xr2:uid="{CC4D25E3-5543-4132-BDE9-DB37E2CE9E54}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="45760" windowHeight="27040" activeTab="3" xr2:uid="{CC4D25E3-5543-4132-BDE9-DB37E2CE9E54}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -3172,16 +3172,16 @@
     <t>111503445</t>
   </si>
   <si>
-    <t>111503434</t>
-  </si>
-  <si>
-    <t>111503436</t>
-  </si>
-  <si>
-    <t>111503443</t>
-  </si>
-  <si>
     <t>111529614</t>
+  </si>
+  <si>
+    <t>111529616</t>
+  </si>
+  <si>
+    <t>111529617</t>
+  </si>
+  <si>
+    <t>111529618</t>
   </si>
 </sst>
 </file>
@@ -5301,7 +5301,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{F462F96B-5E8E-4A7D-8CBA-FDD882F6BC4A}"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="109">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -6098,6 +6098,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <color theme="2"/>
@@ -6115,16 +6125,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -6212,9 +6212,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6226,12 +6229,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="2"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="2"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6267,19 +6267,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="2"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6454,6 +6454,176 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8528,9 +8698,9 @@
   </sheetPr>
   <dimension ref="A1:AQ1048"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="109" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -10504,7 +10674,7 @@
     </row>
     <row r="17" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C17" s="127"/>
       <c r="D17" s="31" t="s">
@@ -13350,7 +13520,7 @@
     </row>
     <row r="40" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>595</v>
@@ -13594,7 +13764,7 @@
     </row>
     <row r="42" spans="1:42" s="259" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B42" s="326" t="s">
         <v>684</v>
@@ -13722,7 +13892,7 @@
     </row>
     <row r="43" spans="1:42" s="270" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B43" s="326"/>
       <c r="C43" s="326"/>
@@ -14578,7 +14748,7 @@
     </row>
     <row r="50" spans="1:42" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D50" s="31" t="s">
         <v>552</v>
@@ -19257,151 +19427,176 @@
     <mergeCell ref="B38:B39"/>
   </mergeCells>
   <phoneticPr fontId="47" type="noConversion"/>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="duplicateValues" dxfId="108" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="duplicateValues" dxfId="105" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="duplicateValues" dxfId="101" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="duplicateValues" dxfId="97" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="6"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="91" priority="1">
+    <cfRule type="expression" dxfId="91" priority="18">
       <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576 F1:T1048576">
-    <cfRule type="expression" dxfId="90" priority="55">
+    <cfRule type="expression" dxfId="90" priority="72">
       <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D6 F3:G6">
-    <cfRule type="containsText" dxfId="89" priority="58" operator="containsText" text="Input here">
+    <cfRule type="containsText" dxfId="89" priority="75" operator="containsText" text="Input here">
       <formula>NOT(ISERROR(SEARCH("Input here",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2">
-    <cfRule type="expression" dxfId="88" priority="22">
+    <cfRule type="expression" dxfId="88" priority="39">
       <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E802">
-    <cfRule type="expression" dxfId="87" priority="24">
+    <cfRule type="expression" dxfId="87" priority="41">
       <formula>SEARCH("_1",$F3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E1048576">
-    <cfRule type="expression" dxfId="86" priority="23">
+    <cfRule type="expression" dxfId="86" priority="40">
       <formula>$E$13="Click the button to start next step ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:T1971">
-    <cfRule type="expression" dxfId="85" priority="57">
+    <cfRule type="expression" dxfId="85" priority="74">
       <formula>SEARCH("No",#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:AK46">
-    <cfRule type="expression" dxfId="84" priority="44">
+    <cfRule type="expression" dxfId="84" priority="61">
       <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U47:AK47">
-    <cfRule type="expression" dxfId="83" priority="18">
+    <cfRule type="expression" dxfId="83" priority="35">
       <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U48:AK51">
-    <cfRule type="expression" dxfId="82" priority="2">
+    <cfRule type="expression" dxfId="82" priority="19">
       <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Z46">
-    <cfRule type="expression" dxfId="81" priority="46">
+    <cfRule type="expression" dxfId="81" priority="64">
+      <formula>AND(#REF!="",#REF!="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="63">
       <formula>SEARCH("No Front Desk",#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="47">
-      <formula>AND(#REF!="",#REF!="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y3:Z46">
-    <cfRule type="expression" dxfId="79" priority="45">
+    <cfRule type="expression" dxfId="79" priority="62">
       <formula>SEARCH("24h Front Desk",#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y47:Z47">
-    <cfRule type="expression" dxfId="78" priority="19">
+    <cfRule type="expression" dxfId="78" priority="37">
+      <formula>SEARCH("No Front Desk",#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="36">
       <formula>SEARCH("24h Front Desk",#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="20">
-      <formula>SEARCH("No Front Desk",#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="21">
+    <cfRule type="expression" dxfId="76" priority="38">
       <formula>AND(#REF!="",#REF!="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y48:Z51">
-    <cfRule type="expression" dxfId="75" priority="5">
-      <formula>AND(#REF!="",#REF!="")</formula>
+    <cfRule type="expression" dxfId="75" priority="21">
+      <formula>SEARCH("No Front Desk",#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="3">
+    <cfRule type="expression" dxfId="74" priority="20">
       <formula>SEARCH("24h Front Desk",#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="4">
-      <formula>SEARCH("No Front Desk",#REF!)</formula>
+    <cfRule type="expression" dxfId="73" priority="22">
+      <formula>AND(#REF!="",#REF!="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH1:AH51">
-    <cfRule type="expression" dxfId="72" priority="51">
+    <cfRule type="expression" dxfId="72" priority="68">
       <formula>AND(#REF!="",#REF!="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH3:AH51">
-    <cfRule type="expression" dxfId="71" priority="49">
+    <cfRule type="expression" dxfId="71" priority="66">
       <formula>SEARCH("No",#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ1:AJ51">
-    <cfRule type="expression" dxfId="70" priority="50">
+    <cfRule type="expression" dxfId="70" priority="67">
       <formula>AND(#REF!="",#REF!="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AJ51">
-    <cfRule type="expression" dxfId="69" priority="48">
+    <cfRule type="expression" dxfId="69" priority="65">
       <formula>SEARCH("No",#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL1">
-    <cfRule type="expression" dxfId="68" priority="42">
+    <cfRule type="expression" dxfId="68" priority="59">
       <formula>#REF!="Click the button to start next step ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL3:AL51">
-    <cfRule type="expression" dxfId="67" priority="41">
+    <cfRule type="expression" dxfId="67" priority="58">
       <formula>#REF!="Click the button to start next step ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL4:AL51">
-    <cfRule type="expression" dxfId="66" priority="40">
+    <cfRule type="expression" dxfId="66" priority="57">
       <formula>SEARCH("_1",#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM1">
-    <cfRule type="expression" dxfId="65" priority="39">
+    <cfRule type="expression" dxfId="65" priority="55">
+      <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="56">
       <formula>AND(#REF!="",#REF!="")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="38">
-      <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN1">
-    <cfRule type="expression" dxfId="63" priority="30">
+    <cfRule type="expression" dxfId="63" priority="47">
       <formula>#REF!="Click the button to start next step ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN2">
-    <cfRule type="expression" dxfId="62" priority="31">
+    <cfRule type="expression" dxfId="62" priority="48">
       <formula>#REF!="Click the button to start next step ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO1">
-    <cfRule type="expression" dxfId="61" priority="26">
+    <cfRule type="expression" dxfId="61" priority="43">
       <formula>#REF!="Click the button to start next step ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP1">
-    <cfRule type="expression" dxfId="60" priority="25">
+    <cfRule type="expression" dxfId="60" priority="42">
       <formula>#REF!="Click the button to Start your Property mapping ---&gt;"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19716,17 +19911,17 @@
   </sheetPr>
   <dimension ref="A1:AL201"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="AA4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="48.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" style="170" customWidth="1"/>
-    <col min="2" max="2" width="42.5" style="170" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" style="170" customWidth="1"/>
+    <col min="2" max="2" width="43" style="170" customWidth="1"/>
     <col min="3" max="3" width="59.1640625" style="212" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.1640625" style="209" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="170" customWidth="1"/>
@@ -24251,7 +24446,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
